--- a/branches/CD4_Resource_Dev_FIG-54/ValueSet-vs-arvtreatment-activity-type.xlsx
+++ b/branches/CD4_Resource_Dev_FIG-54/ValueSet-vs-arvtreatment-activity-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T14:01:55+00:00</t>
+    <t>2023-02-24T14:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
